--- a/２年/心研実習/第３回/実験3データ（配布用）.xlsx
+++ b/２年/心研実習/第３回/実験3データ（配布用）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="140" windowWidth="25000" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="580" yWindow="5300" windowWidth="25000" windowHeight="16240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生データ" sheetId="1" r:id="rId1"/>
@@ -487,7 +487,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -503,6 +503,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,82 +768,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,11 +1134,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2078963336"/>
-        <c:axId val="2079068872"/>
+        <c:axId val="2123382344"/>
+        <c:axId val="2126627016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2078963336"/>
+        <c:axId val="2123382344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079068872"/>
+        <c:crossAx val="2126627016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1086,7 +1155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079068872"/>
+        <c:axId val="2126627016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -1125,7 +1194,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2078963336"/>
+        <c:crossAx val="2123382344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3053,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4438,35 +4507,38 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="31"/>
+      <c r="D30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="34" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="31" t="s">
+      <c r="K30" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="31"/>
+      <c r="L30" s="24"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="33"/>
+      <c r="G31" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="36">
         <f>AVERAGE(D2:D27)</f>
         <v>19.692307692307693</v>
       </c>
@@ -4481,31 +4553,32 @@
       <c r="A32">
         <v>20</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="31">
         <f>COUNTIF(B2:B27,1)</f>
         <v>13</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="31">
         <f>COUNTIF(B2:B27,2)</f>
         <v>13</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="33"/>
+      <c r="G32" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H32" s="38">
         <f>STDEVP(D2:D27)</f>
         <v>0.95148591360407586</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="27">
+      <c r="K32" s="44">
         <v>159.38461538461539</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="44">
         <v>192.46153846153845</v>
       </c>
     </row>
@@ -4513,15 +4586,15 @@
       <c r="A33">
         <v>21</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="J33" s="9" t="s">
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="J33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="26">
         <v>161.84615384615384</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="26">
         <v>186.84615384615384</v>
       </c>
     </row>
@@ -4530,41 +4603,41 @@
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
         <v>23</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
         <v>24</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="28" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4572,64 +4645,64 @@
       <c r="A37">
         <v>25</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
         <v>26</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:12" ht="18" thickBot="1">
       <c r="A39">
         <v>27</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40">
         <v>28</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="29" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="29" t="s">
+      <c r="E40" s="23"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="29"/>
+      <c r="H40" s="23"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
         <v>29</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="14"/>
+      <c r="D41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="18" t="s">
+      <c r="F41" s="14"/>
+      <c r="G41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="19" t="s">
+      <c r="H41" s="16" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4637,20 +4710,20 @@
       <c r="A42">
         <v>30</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="44">
         <v>159.38461538461539</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="44">
         <v>89.261533158327211</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16">
+      <c r="F42" s="44"/>
+      <c r="G42" s="44">
         <v>192.46153846153845</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="44">
         <v>124.89541186659117</v>
       </c>
     </row>
@@ -4658,20 +4731,20 @@
       <c r="A43">
         <v>31</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="26">
         <v>161.84615384615384</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="26">
         <v>112.88240726447361</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17">
+      <c r="F43" s="26"/>
+      <c r="G43" s="26">
         <v>186.84615384615384</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="26">
         <v>79.25212557581041</v>
       </c>
     </row>
@@ -4684,10 +4757,10 @@
       <c r="A45">
         <v>33</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="40">
         <f>COUNTIF(C2:C27,1)</f>
         <v>16</v>
       </c>
@@ -4696,10 +4769,10 @@
       <c r="A46">
         <v>34</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D46" s="42">
         <f>COUNTIF(C2:C27,2)</f>
         <v>10</v>
       </c>
@@ -4807,7 +4880,7 @@
       <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" ht="17.25" customHeight="1">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1"/>
@@ -5120,14 +5193,14 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <f>AVERAGE(E3:E15)</f>
         <v>159.38461538461539</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="20">
         <f>AVERAGE(F3:F15)</f>
         <v>192.46153846153845</v>
       </c>
@@ -5136,14 +5209,14 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <f>STDEVP(E3:E15)</f>
         <v>89.261533158327211</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="22">
         <f>STDEVP(F3:F15)</f>
         <v>124.89541186659117</v>
       </c>
@@ -5153,7 +5226,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5421,14 +5494,14 @@
       <c r="A33">
         <v>27</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <f>AVERAGE(E20:E32)</f>
         <v>161.84615384615384</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="20">
         <f>AVERAGE(F20:F32)</f>
         <v>186.84615384615384</v>
       </c>
@@ -5437,14 +5510,14 @@
       <c r="A34">
         <v>28</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <f>STDEVP(E20:E32)</f>
         <v>112.88240726447361</v>
       </c>
-      <c r="F34" s="26">
+      <c r="F34" s="22">
         <f>STDEVP(F20:F32)</f>
         <v>79.25212557581041</v>
       </c>
@@ -5593,75 +5666,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:19" ht="18" thickBot="1">
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="21"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="3:19">
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="10"/>
+      <c r="S4" s="9"/>
     </row>
     <row r="5" spans="3:19">
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="13">
         <v>159.38461538461539</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="13">
         <v>89.261533158327211</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
         <v>192.46153846153845</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>124.89541186659117</v>
       </c>
     </row>
     <row r="6" spans="3:19">
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>161.84615384615384</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>112.88240726447361</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
         <v>186.84615384615384</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <v>79.25212557581041</v>
       </c>
     </row>

--- a/２年/心研実習/第３回/実験3データ（配布用）.xlsx
+++ b/２年/心研実習/第３回/実験3データ（配布用）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26004"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="5300" windowWidth="25000" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="1720" windowWidth="25600" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="生データ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -409,6 +409,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>表1（各群の平均値と実験群に与えられたフィードバック値）</t>
+    <rPh sb="0" eb="1">
+      <t>ヒョ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -525,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -626,9 +636,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -798,9 +889,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,91 +902,94 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="63">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -918,6 +1009,18 @@
     <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -938,6 +1041,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -966,9 +1081,45 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP"/>
+              <a:t>図１（実験群と統制群における各試行の判断値の標準偏差）</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.128196013248729"/>
+          <c:y val="0.914489311163896"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.106959343872463"/>
+          <c:y val="0.0308788598574822"/>
+          <c:w val="0.752824939640634"/>
+          <c:h val="0.765384442740382"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1134,11 +1285,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123382344"/>
-        <c:axId val="2126627016"/>
+        <c:axId val="-2100956648"/>
+        <c:axId val="-2100960040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2123382344"/>
+        <c:axId val="-2100956648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126627016"/>
+        <c:crossAx val="-2100960040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1155,7 +1306,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126627016"/>
+        <c:axId val="-2100960040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300.0"/>
@@ -1174,7 +1325,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:rPr lang="ja-JP"/>
                   <a:t>ビー玉の推定の平均値（個）</a:t>
                 </a:r>
               </a:p>
@@ -1194,7 +1345,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2123382344"/>
+        <c:crossAx val="-2100956648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,6 +1388,20 @@
       </a:solidFill>
     </a:ln>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1250,20 +1415,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvPr id="3" name="グラフ 2" title="表１（実験群と統制群における各試行の判断値の標準偏差）"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1285,11 +1450,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10016</cdr:x>
+      <cdr:x>0.10632</cdr:x>
       <cdr:y>0.17738</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85215</cdr:x>
+      <cdr:x>0.85831</cdr:x>
       <cdr:y>0.17738</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
@@ -1299,8 +1464,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="800100" y="876300"/>
-          <a:ext cx="6007100" cy="0"/>
+          <a:off x="876349" y="948398"/>
+          <a:ext cx="6198127" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -3122,8 +3287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleSheetLayoutView="98" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E38"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScaleSheetLayoutView="98" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4507,38 +4672,38 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="34" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="29" t="s">
         <v>1</v>
       </c>
       <c r="J30" s="6"/>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="24"/>
+      <c r="L30" s="47"/>
     </row>
     <row r="31" spans="1:16">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="28"/>
+      <c r="D31" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="36" t="s">
+      <c r="F31" s="28"/>
+      <c r="G31" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="31">
         <f>AVERAGE(D2:D27)</f>
         <v>19.692307692307693</v>
       </c>
@@ -4553,32 +4718,32 @@
       <c r="A32">
         <v>20</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="27">
         <f>COUNTIF(B2:B27,1)</f>
         <v>13</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="27">
         <f>COUNTIF(B2:B27,2)</f>
         <v>13</v>
       </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="28"/>
+      <c r="G32" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="33">
         <f>STDEVP(D2:D27)</f>
         <v>0.95148591360407586</v>
       </c>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K32" s="44">
+      <c r="K32" s="39">
         <v>159.38461538461539</v>
       </c>
-      <c r="L32" s="44">
+      <c r="L32" s="39">
         <v>192.46153846153845</v>
       </c>
     </row>
@@ -4588,13 +4753,13 @@
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="J33" s="30" t="s">
+      <c r="J33" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="23">
         <v>161.84615384615384</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="23">
         <v>186.84615384615384</v>
       </c>
     </row>
@@ -4603,41 +4768,47 @@
         <v>22</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="K34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35">
         <v>23</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="27" t="s">
+      <c r="E35" s="48"/>
+      <c r="F35" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="45"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36">
         <v>24</v>
       </c>
       <c r="C36" s="6"/>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G36" s="28" t="s">
+      <c r="G36" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4648,10 +4819,10 @@
       <c r="C37" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38">
@@ -4660,10 +4831,10 @@
       <c r="C38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="1:12" ht="18" thickBot="1">
       <c r="A39">
@@ -4676,16 +4847,16 @@
       <c r="A40">
         <v>28</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="17"/>
+      <c r="D40" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="23"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="23" t="s">
+      <c r="E40" s="44"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H40" s="23"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41">
@@ -4710,20 +4881,20 @@
       <c r="A42">
         <v>30</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="44">
+      <c r="D42" s="39">
         <v>159.38461538461539</v>
       </c>
-      <c r="E42" s="44">
+      <c r="E42" s="39">
         <v>89.261533158327211</v>
       </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44">
+      <c r="F42" s="39"/>
+      <c r="G42" s="39">
         <v>192.46153846153845</v>
       </c>
-      <c r="H42" s="44">
+      <c r="H42" s="39">
         <v>124.89541186659117</v>
       </c>
     </row>
@@ -4731,20 +4902,20 @@
       <c r="A43">
         <v>31</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="26">
+      <c r="D43" s="23">
         <v>161.84615384615384</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="23">
         <v>112.88240726447361</v>
       </c>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26">
+      <c r="F43" s="23"/>
+      <c r="G43" s="23">
         <v>186.84615384615384</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="23">
         <v>79.25212557581041</v>
       </c>
     </row>
@@ -4757,10 +4928,10 @@
       <c r="A45">
         <v>33</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="35">
         <f>COUNTIF(C2:C27,1)</f>
         <v>16</v>
       </c>
@@ -4769,10 +4940,10 @@
       <c r="A46">
         <v>34</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="37">
         <f>COUNTIF(C2:C27,2)</f>
         <v>10</v>
       </c>
@@ -5193,14 +5364,14 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="7">
         <f>AVERAGE(E3:E15)</f>
         <v>159.38461538461539</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="19">
         <f>AVERAGE(F3:F15)</f>
         <v>192.46153846153845</v>
       </c>
@@ -5209,14 +5380,14 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="8">
         <f>STDEVP(E3:E15)</f>
         <v>89.261533158327211</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <f>STDEVP(F3:F15)</f>
         <v>124.89541186659117</v>
       </c>
@@ -5494,14 +5665,14 @@
       <c r="A33">
         <v>27</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="7">
         <f>AVERAGE(E20:E32)</f>
         <v>161.84615384615384</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="19">
         <f>AVERAGE(F20:F32)</f>
         <v>186.84615384615384</v>
       </c>
@@ -5510,14 +5681,14 @@
       <c r="A34">
         <v>28</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="8">
         <f>STDEVP(E20:E32)</f>
         <v>112.88240726447361</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="21">
         <f>STDEVP(F20:F32)</f>
         <v>79.25212557581041</v>
       </c>
@@ -5657,33 +5828,35 @@
   <dimension ref="C2:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H6"/>
+      <selection activeCell="C2" sqref="C2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="2.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:19" ht="18" thickBot="1">
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="C2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="18"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="23" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="3:19">
       <c r="C4" s="14"/>
@@ -5739,9 +5912,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
